--- a/MapeamentoIFSC/src/main/resources/Planilha_Locais.xlsx
+++ b/MapeamentoIFSC/src/main/resources/Planilha_Locais.xlsx
@@ -180,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,11 +214,6 @@
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -282,7 +277,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,10 +287,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,20 +311,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX49"/>
+  <dimension ref="A2:AX50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="44.38"/>
@@ -342,7 +333,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.13"/>
@@ -372,315 +363,166 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="0" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="61.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="74.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="74.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="9.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="50" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW2" s="0" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>48</v>
@@ -793,7 +635,7 @@
       <c r="AN3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="0" t="s">
         <v>48</v>
       </c>
       <c r="AP3" s="0" t="s">
@@ -817,22 +659,22 @@
       <c r="AV3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AW3" s="0" t="s">
+      <c r="AW3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>48</v>
@@ -933,7 +775,7 @@
       <c r="AK4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="0" t="s">
         <v>48</v>
       </c>
       <c r="AM4" s="0" t="s">
@@ -942,7 +784,7 @@
       <c r="AN4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AO4" s="0" t="s">
+      <c r="AO4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AP4" s="0" t="s">
@@ -972,7 +814,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>48</v>
@@ -981,10 +823,10 @@
         <v>48</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>48</v>
@@ -1064,8 +906,8 @@
       <c r="AE5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" s="0" t="n">
-        <v>1</v>
+      <c r="AF5" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="AG5" s="0" t="s">
         <v>48</v>
@@ -1082,7 +924,7 @@
       <c r="AK5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AL5" s="0" t="s">
+      <c r="AL5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AM5" s="0" t="s">
@@ -1121,7 +963,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>48</v>
@@ -1129,14 +971,14 @@
       <c r="C6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>48</v>
@@ -1211,467 +1053,637 @@
         <v>48</v>
       </c>
       <c r="AE6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW6" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="J10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="U22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="X24" s="0" t="n">
+      <c r="W24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="X25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="0" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AL39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX39" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN40" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="AP43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AQ44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="AR45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="AS46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="AT47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="AU48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>47</v>
+      </c>
+      <c r="AW50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MapeamentoIFSC/src/main/resources/Planilha_Locais.xlsx
+++ b/MapeamentoIFSC/src/main/resources/Planilha_Locais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t xml:space="preserve">Auditório</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">Secretaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2</t>
   </si>
 </sst>
 </file>
@@ -314,7 +308,7 @@
   <dimension ref="A2:AX50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="AX51" activeCellId="0" sqref="AX51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -518,725 +512,56 @@
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW4" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="AO4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW5" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="AL5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="AF6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW6" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE7" s="0" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -1245,9 +570,6 @@
       <c r="J12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AT12" s="0" t="n">
         <v>1</v>
       </c>
@@ -1262,9 +584,6 @@
       <c r="K13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AS13" s="0" t="n">
         <v>1</v>
       </c>
@@ -1273,9 +592,6 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AN14" s="0" t="n">
         <v>1</v>
       </c>
@@ -1305,9 +621,6 @@
       <c r="M15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" s="0" t="n">
         <v>1</v>
       </c>
@@ -1319,9 +632,6 @@
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AK16" s="0" t="n">
         <v>1</v>
       </c>
@@ -1330,9 +640,6 @@
       <c r="A17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" s="0" t="n">
         <v>1</v>
       </c>
@@ -1344,129 +651,81 @@
       <c r="A18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X25" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB29" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC30" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD31" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE32" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF33" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1475,9 +734,6 @@
       <c r="O34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AG34" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1489,9 +745,6 @@
       <c r="P35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AH35" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1503,33 +756,21 @@
       <c r="R36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AI36" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="AJ37" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK38" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AL39" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AX39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,9 +837,6 @@
       <c r="AL40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AM40" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AR40" s="0" t="n">
         <v>1</v>
       </c>
@@ -1610,80 +848,50 @@
       <c r="A41" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="AN41" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="AO42" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AP43" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AQ44" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="AR45" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="AS46" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="AT47" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AU48" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="AV49" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="AW50" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MapeamentoIFSC/src/main/resources/Planilha_Locais.xlsx
+++ b/MapeamentoIFSC/src/main/resources/Planilha_Locais.xlsx
@@ -307,8 +307,8 @@
   </sheetPr>
   <dimension ref="A2:AX50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX51" activeCellId="0" sqref="AX51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,13 +579,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,22 +593,22 @@
         <v>11</v>
       </c>
       <c r="AN14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AQ14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AV14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" s="0" t="n">
         <v>1</v>
@@ -778,70 +778,70 @@
         <v>37</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AL40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
